--- a/medicine/Mort/Décès_en_1910/Décès_en_1910.xlsx
+++ b/medicine/Mort/Décès_en_1910/Décès_en_1910.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1910</t>
+          <t>Décès_en_1910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1910</t>
+          <t>Décès_en_1910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,21 +540,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Oreste Cortazzo, peintre et graveur italien (° 1836).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oreste Cortazzo, peintre et graveur italien (° 1836).
 Francesco Monachesi, peintre italien (° 1817).
 Jean Émile Renié, peintre français (° 23 juin 1835).
-Cornelia Emilian, journaliste et féministe roumaine (° 1840).
-Janvier
-5 janvier : Léon Walras, économiste français (° 16 décembre 1834).
+Cornelia Emilian, journaliste et féministe roumaine (° 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 janvier : Léon Walras, économiste français (° 16 décembre 1834).
 16 janvier : Martial Caillebotte, compositeur et pianiste français (° 7 avril 1853).
-17 janvier[1]: Joaquim Nabuco, juriste et homme politique brésilien, qui lutta pour l’abolition de l’esclavage (° 19 août 1849).
+17 janvier: Joaquim Nabuco, juriste et homme politique brésilien, qui lutta pour l’abolition de l’esclavage (° 19 août 1849).
 19 janvier :
 Daniel Ihly, peintre suisse (° 25 octobre 1854).
 Eugène Thirion, peintre français (° 19 mai 1839).
-29 janvier : Édouard Rod, écrivain suisse (° 31 mars 1857).
-Février
-1er février : Antonín Slavíček, peintre impressionniste austro-hongrois (° 16 mai 1870).
+29 janvier : Édouard Rod, écrivain suisse (° 31 mars 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Antonín Slavíček, peintre impressionniste austro-hongrois (° 16 mai 1870).
 2 février : Jean-Baptiste Arnaud-Durbec, peintre français (° 30 juillet 1827).
 14 février : Giovanni Passannante, anarchiste italien (° 19 février 1849).
 15 février : Clement Francis Cornwall, homme politique canadien (° 18 juin 1836).
@@ -550,9 +635,43 @@
 23 février :
 Antoine Aymès, officier de marine et explorateur de l'Afrique occidentale français (° 9 mai 1836).
 Amos Dolbear, physicien et inventeur américain (° 10 novembre 1837).
-24 février : Osman Hamdi Bey, peintre et archéologue ottoman (° 30 décembre 1842).
-Mars
-10 mars :
+24 février : Osman Hamdi Bey, peintre et archéologue ottoman (° 30 décembre 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10 mars :
 Carlo Mancini, peintre italien (° 28 février 1889).
 Carl Reinecke, compositeur allemand (° 23 juin 1824).
 16 mars : Louis Lemaire, peintre et graveur français (° 18 avril 1824).
@@ -564,9 +683,43 @@
 28 mars : Giuseppe Barbaglia, peintre italien (° 10 octobre 1841).
 29 mars :
 François-Émile Ehrmann, peintre et décorateur français (° 5 septembre 1833).
-George Turner, peintre britannique (° 2 avril 1841).
-Avril
-1er avril : Andreas Achenbach, peintre allemand (° 29 septembre 1815).
+George Turner, peintre britannique (° 2 avril 1841).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Andreas Achenbach, peintre allemand (° 29 septembre 1815).
 2 avril : Boyd Alexander, officier britannique, explorateur et ornithologue (° 16 janvier 1873).
 8 avril : « Lagartijo Chico » (Rafael Molina Martínez), matador espagnol (° 16 juillet 1880).
 9 avril : Vittoria Aganoor, poétesse italienne (° 26 mai 1855).
@@ -574,9 +727,43 @@
 15 avril : Romulus Zachariah Linney, homme politique américain (° 26 décembre 1841).
 17 avril : Consuelo Clark-Stewart, médecin afro-américaine († 22 juillet 1860).
 21 avril : Mark Twain, écrivain, essayiste et humoriste américain (° 30 novembre 1835).
-? avril : Julien Dupré, peintre français (° 19 mars 1851).
-Mai
-1er mai : Louis Welden Hawkins, peintre français (° 1er juillet 1849).
+? avril : Julien Dupré, peintre français (° 19 mars 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Louis Welden Hawkins, peintre français (° 1er juillet 1849).
 6 mai : Édouard VII de Saxe-Cobourg-Gotha, roi du Royaume-Uni, empereur des Indes (° 9 novembre 1841).
 12 mai : William Huggins, astronome britannique (° 7 février 1824).
 13 mai : Adolphe Piot, peintre français (° 13 février 1831).
@@ -590,25 +777,127 @@
 20 mai : Jean-Baptiste Weckerlin, compositeur et folkloriste français (° 9 novembre 1821).
 22 mai : Jules Renard, écrivain français (° 22 février 1864).
 27 mai : Robert Koch, médecin et microbiologiste allemand (° 11 décembre 1843).
-29 mai : Mili Balakirev, compositeur russe (° 2 janvier 1837).
-Juin
-5 juin : Hippolyte Camille Delpy, peintre français (° 16 avril 1842).
+29 mai : Mili Balakirev, compositeur russe (° 2 janvier 1837).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5 juin : Hippolyte Camille Delpy, peintre français (° 16 avril 1842).
 16 juin : Auguste-Emmanuel Hotin, peintre, dessinateur et graveur français (° 24 décembre 1850).
 26 juin : Édouard Sain, peintre français (° 13 mai 1830).
 28 juin :
 Gustave Huberti, compositeur belge lié au mouvement flamand (° 14 avril 1843).
 Petar Ubavkić, sculpteur et peintre serbe (° 12 avril 1852).
-? juin : Eugène Trigoulet, peintre, dessinateur et graveur français (° 3 juillet 1864).
-Juillet
-1er juillet : Paul Blanc, peintre, graveur et dessinateur français (° 22 septembre 1836).
+? juin : Eugène Trigoulet, peintre, dessinateur et graveur français (° 3 juillet 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Paul Blanc, peintre, graveur et dessinateur français (° 22 septembre 1836).
 2 juillet : Jean-Jacques Liabeuf, cordonnier et condamné français (° 11 janvier 1886).
 4 juillet : Giovanni Schiaparelli, astronome, historien des sciences et homme politique italien (° 14 mars 1835).
 5 juillet : Pierre De Coninck, peintre français (° 22 novembre 1828).
 10 juillet : Johann Galle, astronome allemand (° 9 juin 1812).
 14 juillet : Louis-Albert Bourgault-Ducoudray, chef d'orchestre et compositeur français (° 2 février 1840).
-24 juillet : Arkhip Kouïndji, peintre russe (° 27 janvier 1841).
-Août
-8 août :
+24 juillet : Arkhip Kouïndji, peintre russe (° 27 janvier 1841).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>8 août :
 Rudolf Epp, peintre allemand (° 30 juillet 1834).
 Richard Wülker, angliciste allemand (° 29 juillet 1845).
 13 août : Ernst Martin, philologue allemand (° 5 mai 1841).
@@ -617,9 +906,43 @@
 Zygmunt Gloger, historien polonais (° 3 novembre 1845).
 Sergueï Ivanov, peintre et graphiste russe (° 16 juin 1864).
 Charles Lenepveu, compositeur et pédagogue français (° 4 octobre 1840).
-20 août : Arthur Coquard, compositeur et critique musical français (° 26 mai 1846).
-Septembre
-2 septembre :
+20 août : Arthur Coquard, compositeur et critique musical français (° 26 mai 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Francisco Cruzate, footballeur et athlète espagnol (° 7 juillet 1878).
 Henri (le Douanier) Rousseau, peintre français (° 21 mai 1844).
 5 septembre : Julian Edwards, compositeur anglo-américain (° 11 décembre 1855).
@@ -628,9 +951,43 @@
 Pepete (José Gallego Mateo), matador espagnol (° 19 mars 1883).
 12 septembre : Georges Gasté, peintre orientaliste et photographe français (° 30 août 1869).
 24 septembre : Rudolf Dellinger, compositeur et chef d'orchestre allemand (° 8 juillet 1857).
-? septembre : Edmond Eugène Valton, peintre et dessinateur français (° 25 septembre 1836).
-Octobre
-9 octobre : Franciszek Żmurko, peintre réaliste polonais (° 18 juillet 1859).
+? septembre : Edmond Eugène Valton, peintre et dessinateur français (° 25 septembre 1836).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9 octobre : Franciszek Żmurko, peintre réaliste polonais (° 18 juillet 1859).
 10 octobre :
 Jean-Marie Cazauran, historien et religieux français (° 2 mai 1845).
 Willem Maris, peintre néerlandais (° 18 février 1844).
@@ -639,15 +996,83 @@
 19 octobre :  Domenico Bruschi, peintre italien (° 13 juin 1840).
 21 octobre : Charles Van der Stappen, sculpteur belge (° 19 décembre 1843).
 23 octobre : Alfred-Louis Bahuet, peintre, graveur et lithographe français (° 20 juin 1862).
-30 octobre : Jean Henri Dunant, créateur de la Croix-Rouge (° 8 mai 1828).
-Novembre
-2 novembre : Edward Coremans, homme politique belge (° 1er février 1835).
+30 octobre : Jean Henri Dunant, créateur de la Croix-Rouge (° 8 mai 1828).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : Edward Coremans, homme politique belge (° 1er février 1835).
 6 novembre : Giuseppe Cesare Abba, écrivain italien (° 6 octobre 1838).
 20 novembre : Léon Tolstoï, écrivain russe (° 9 septembre 1828).
 23 novembre : Léon Simon, peintre et dessinateur français (° 14 juin 1836).
-29 novembre : Étienne-Prosper Berne-Bellecour, peintre, graveur et illustrateur français (° 29 juin 1838).
-Décembre
-3 décembre :
+29 novembre : Étienne-Prosper Berne-Bellecour, peintre, graveur et illustrateur français (° 29 juin 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1910</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre :
 Mary Baker Eddy, fondatrice américaine de la Science chrétienne (° 16 juin 1821).
 Ludwig von Löfftz, peintre allemand (° 21 juin 1845).
 7 décembre : Ludwig Knaus, peintre allemand (° 5 octobre 1829).
